--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>135.23415041113</v>
+        <v>14.528032429113</v>
       </c>
       <c r="R2">
-        <v>811.40490246678</v>
+        <v>58.112129716452</v>
       </c>
       <c r="S2">
-        <v>0.06375597819388729</v>
+        <v>0.008253406062958999</v>
       </c>
       <c r="T2">
-        <v>0.05296670568613132</v>
+        <v>0.004608182052291597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>753.7558946945422</v>
+        <v>78.44564709542399</v>
       </c>
       <c r="R3">
-        <v>6783.80305225088</v>
+        <v>470.673882572544</v>
       </c>
       <c r="S3">
-        <v>0.3553573135155668</v>
+        <v>0.04456513863864245</v>
       </c>
       <c r="T3">
-        <v>0.4428315611711042</v>
+        <v>0.03732354929575319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>12.35582806564333</v>
+        <v>0.406360496787</v>
       </c>
       <c r="R4">
-        <v>111.20245259079</v>
+        <v>2.438162980722</v>
       </c>
       <c r="S4">
-        <v>0.005825140338632563</v>
+        <v>0.0002308542608431955</v>
       </c>
       <c r="T4">
-        <v>0.007259048546595997</v>
+        <v>0.0001933417161468106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>572.0900334236484</v>
+        <v>28.718401702977</v>
       </c>
       <c r="R5">
-        <v>3432.54020054189</v>
+        <v>114.873606811908</v>
       </c>
       <c r="S5">
-        <v>0.269711160864412</v>
+        <v>0.01631498497063265</v>
       </c>
       <c r="T5">
-        <v>0.2240685827817759</v>
+        <v>0.009109259904525071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>86.69671552036888</v>
+        <v>0.801881616207</v>
       </c>
       <c r="R6">
-        <v>780.27043968332</v>
+        <v>4.811289697242001</v>
       </c>
       <c r="S6">
-        <v>0.04087306266497143</v>
+        <v>0.0004555506483944632</v>
       </c>
       <c r="T6">
-        <v>0.05093431726706474</v>
+        <v>0.0003815261794635138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>19.34092307685778</v>
+        <v>0.804252657264</v>
       </c>
       <c r="R7">
-        <v>174.06830769172</v>
+        <v>4.825515943584</v>
       </c>
       <c r="S7">
-        <v>0.009118255013167957</v>
+        <v>0.0004568976418521699</v>
       </c>
       <c r="T7">
-        <v>0.01136279161582679</v>
+        <v>0.0003826542939102662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>1.178072930516</v>
+        <v>139.5946172569233</v>
       </c>
       <c r="R8">
-        <v>7.068437583095998</v>
+        <v>837.5677035415399</v>
       </c>
       <c r="S8">
-        <v>0.0005554010717000472</v>
+        <v>0.0793039983938881</v>
       </c>
       <c r="T8">
-        <v>0.000461411869692226</v>
+        <v>0.06641753585476515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
-        <v>6.566236509468443</v>
+        <v>753.7558946945421</v>
       </c>
       <c r="R9">
-        <v>59.09612858521599</v>
+        <v>6783.803052250879</v>
       </c>
       <c r="S9">
-        <v>0.003095644335701185</v>
+        <v>0.4282103238423759</v>
       </c>
       <c r="T9">
-        <v>0.003857663714437638</v>
+        <v>0.5379427603874793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>0.1076360263586666</v>
+        <v>3.904571268965555</v>
       </c>
       <c r="R10">
-        <v>0.9687242372279999</v>
+        <v>35.14114142068999</v>
       </c>
       <c r="S10">
-        <v>5.074487567331985E-05</v>
+        <v>0.002218195226488998</v>
       </c>
       <c r="T10">
-        <v>6.323616163556301E-05</v>
+        <v>0.002786626096513873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>4.983680380624667</v>
+        <v>275.9447511917766</v>
       </c>
       <c r="R11">
-        <v>29.902082283748</v>
+        <v>1655.66850715066</v>
       </c>
       <c r="S11">
-        <v>0.002349550144741099</v>
+        <v>0.1567647989251474</v>
       </c>
       <c r="T11">
-        <v>0.001951941363566762</v>
+        <v>0.1312913833381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>0.7552460189137776</v>
+        <v>7.704990875121111</v>
       </c>
       <c r="R12">
-        <v>6.797214170223999</v>
+        <v>69.34491787608999</v>
       </c>
       <c r="S12">
-        <v>0.0003560598307934801</v>
+        <v>0.004377221672243399</v>
       </c>
       <c r="T12">
-        <v>0.0004437070090966031</v>
+        <v>0.005498920922937099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>0.1684856810115555</v>
+        <v>7.727773352408888</v>
       </c>
       <c r="R13">
-        <v>1.516371129104</v>
+        <v>69.54996017167998</v>
       </c>
       <c r="S13">
-        <v>7.943237245842083E-05</v>
+        <v>0.004390164445953027</v>
       </c>
       <c r="T13">
-        <v>9.898533156753574E-05</v>
+        <v>0.005515180389439339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N14">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O14">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P14">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q14">
-        <v>30.9068952955545</v>
+        <v>3.185407848012</v>
       </c>
       <c r="R14">
-        <v>123.627581182218</v>
+        <v>19.112447088072</v>
       </c>
       <c r="S14">
-        <v>0.01457101875904531</v>
+        <v>0.001809636960411477</v>
       </c>
       <c r="T14">
-        <v>0.008070133280264395</v>
+        <v>0.001515580930803365</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P15">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q15">
-        <v>172.2660618261546</v>
+        <v>17.199946456576</v>
       </c>
       <c r="R15">
-        <v>1033.596370956928</v>
+        <v>154.799518109184</v>
       </c>
       <c r="S15">
-        <v>0.0812146284643737</v>
+        <v>0.009771326093876405</v>
       </c>
       <c r="T15">
-        <v>0.06747087010725869</v>
+        <v>0.01227530920884795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N16">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O16">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P16">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q16">
-        <v>2.8238450358415</v>
+        <v>0.089098363588</v>
       </c>
       <c r="R16">
-        <v>16.943070215049</v>
+        <v>0.801885272292</v>
       </c>
       <c r="S16">
-        <v>0.001331298359036462</v>
+        <v>5.061696949156807E-05</v>
       </c>
       <c r="T16">
-        <v>0.001106005905031736</v>
+        <v>6.358798649788265E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N17">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O17">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P17">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q17">
-        <v>130.7474976468648</v>
+        <v>6.296779871147999</v>
       </c>
       <c r="R17">
-        <v>522.989990587459</v>
+        <v>37.780679226888</v>
       </c>
       <c r="S17">
-        <v>0.06164075112341428</v>
+        <v>0.003577214011548297</v>
       </c>
       <c r="T17">
-        <v>0.03413962230696856</v>
+        <v>0.002995936455714548</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N18">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O18">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P18">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q18">
-        <v>19.81397672784867</v>
+        <v>0.175820091668</v>
       </c>
       <c r="R18">
-        <v>118.883860367092</v>
+        <v>1.582380825012</v>
       </c>
       <c r="S18">
-        <v>0.009341275590185103</v>
+        <v>9.988376730594034E-05</v>
       </c>
       <c r="T18">
-        <v>0.007760473745908501</v>
+        <v>0.0001254798086611215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N19">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O19">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P19">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q19">
-        <v>4.420243574855332</v>
+        <v>0.176339964736</v>
       </c>
       <c r="R19">
-        <v>26.521461449132</v>
+        <v>1.587059682624</v>
       </c>
       <c r="S19">
-        <v>0.002083918537687304</v>
+        <v>0.0001001791082994531</v>
       </c>
       <c r="T19">
-        <v>0.001731261961409908</v>
+        <v>0.0001258508332265272</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N20">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O20">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P20">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q20">
-        <v>8.67770517238</v>
+        <v>46.862832588139</v>
       </c>
       <c r="R20">
-        <v>52.06623103427999</v>
+        <v>187.451330352556</v>
       </c>
       <c r="S20">
-        <v>0.004091093707183214</v>
+        <v>0.02662287467333204</v>
       </c>
       <c r="T20">
-        <v>0.003398767652247125</v>
+        <v>0.01486453620653108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P21">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q21">
-        <v>48.36700941454222</v>
+        <v>253.0408191913387</v>
       </c>
       <c r="R21">
-        <v>435.30308473088</v>
+        <v>1518.244915148032</v>
       </c>
       <c r="S21">
-        <v>0.02280256864233091</v>
+        <v>0.1437530265354326</v>
       </c>
       <c r="T21">
-        <v>0.02841561630094979</v>
+        <v>0.1203939522283145</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N22">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O22">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P22">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q22">
-        <v>0.7928487943933333</v>
+        <v>1.310790296227667</v>
       </c>
       <c r="R22">
-        <v>7.13563914954</v>
+        <v>7.864741777366</v>
       </c>
       <c r="S22">
-        <v>0.0003737876142432653</v>
+        <v>0.0007446627498210891</v>
       </c>
       <c r="T22">
-        <v>0.0004657986383457863</v>
+        <v>0.0006236591582721752</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N23">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O23">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P23">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q23">
-        <v>36.70987414802334</v>
+        <v>92.63647075213099</v>
       </c>
       <c r="R23">
-        <v>220.25924488814</v>
+        <v>370.545883008524</v>
       </c>
       <c r="S23">
-        <v>0.0173068261867758</v>
+        <v>0.05262697568217377</v>
       </c>
       <c r="T23">
-        <v>0.01437803316589805</v>
+        <v>0.02938358817620485</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N24">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O24">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P24">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q24">
-        <v>5.563154975368889</v>
+        <v>2.586616193154334</v>
       </c>
       <c r="R24">
-        <v>50.06839477832</v>
+        <v>15.519697158926</v>
       </c>
       <c r="S24">
-        <v>0.002622742748193013</v>
+        <v>0.00146946215017716</v>
       </c>
       <c r="T24">
-        <v>0.003268353349034497</v>
+        <v>0.001230682651861518</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N25">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O25">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P25">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q25">
-        <v>1.241068381857778</v>
+        <v>2.594264420858666</v>
       </c>
       <c r="R25">
-        <v>11.16961543672</v>
+        <v>15.565586525152</v>
       </c>
       <c r="S25">
-        <v>0.0005851002017633505</v>
+        <v>0.001473807124571582</v>
       </c>
       <c r="T25">
-        <v>0.0007291276299482786</v>
+        <v>0.001234321591870523</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N26">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O26">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P26">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q26">
-        <v>5.613061556325999</v>
+        <v>1.358508050040333</v>
       </c>
       <c r="R26">
-        <v>33.67836933795599</v>
+        <v>8.151048300242001</v>
       </c>
       <c r="S26">
-        <v>0.002646271145994603</v>
+        <v>0.0007717713070568948</v>
       </c>
       <c r="T26">
-        <v>0.002198448975707757</v>
+        <v>0.0006463627244055927</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>168.501376</v>
       </c>
       <c r="O27">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P27">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q27">
-        <v>31.28557559241955</v>
+        <v>7.335407846158222</v>
       </c>
       <c r="R27">
-        <v>281.570180331776</v>
+        <v>66.018670615424</v>
       </c>
       <c r="S27">
-        <v>0.01474954713132394</v>
+        <v>0.004167260768941966</v>
       </c>
       <c r="T27">
-        <v>0.01838027454145767</v>
+        <v>0.005235155801905136</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N28">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O28">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P28">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q28">
-        <v>0.5128440064953332</v>
+        <v>0.03799853894855555</v>
       </c>
       <c r="R28">
-        <v>4.615596058457999</v>
+        <v>0.341986850537</v>
       </c>
       <c r="S28">
-        <v>0.0002417796924488331</v>
+        <v>2.158705063963983E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003012958354715163</v>
+        <v>2.711891087891367E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N29">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O29">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P29">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q29">
-        <v>23.74530814594633</v>
+        <v>2.685441410469667</v>
       </c>
       <c r="R29">
-        <v>142.471848875678</v>
+        <v>16.112648462818</v>
       </c>
       <c r="S29">
-        <v>0.01119469707731082</v>
+        <v>0.001525604965919306</v>
       </c>
       <c r="T29">
-        <v>0.009300245124247288</v>
+        <v>0.001277702569558743</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N30">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O30">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P30">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q30">
-        <v>3.598454972118222</v>
+        <v>0.07498349388411112</v>
       </c>
       <c r="R30">
-        <v>32.38609474906399</v>
+        <v>0.6748514449570001</v>
       </c>
       <c r="S30">
-        <v>0.001696487285471738</v>
+        <v>4.259828204986711E-05</v>
       </c>
       <c r="T30">
-        <v>0.002114092167402287</v>
+        <v>5.351444408917402E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5758453333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.727536</v>
+      </c>
+      <c r="O31">
+        <v>0.006501397792095299</v>
+      </c>
+      <c r="P31">
+        <v>0.00735894679636216</v>
+      </c>
+      <c r="Q31">
+        <v>0.07520520858488888</v>
+      </c>
+      <c r="R31">
+        <v>0.6768468772639999</v>
+      </c>
+      <c r="S31">
+        <v>4.272423864203299E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.367267809967314E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.402079</v>
+      </c>
+      <c r="N32">
+        <v>20.804158</v>
+      </c>
+      <c r="O32">
+        <v>0.117441350183963</v>
+      </c>
+      <c r="P32">
+        <v>0.08862141909929068</v>
+      </c>
+      <c r="Q32">
+        <v>1.196374312027</v>
+      </c>
+      <c r="R32">
+        <v>7.178245872162</v>
+      </c>
+      <c r="S32">
+        <v>0.0006796627863154421</v>
+      </c>
+      <c r="T32">
+        <v>0.0005692213304939045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N33">
+        <v>168.501376</v>
+      </c>
+      <c r="O33">
+        <v>0.6341369869521791</v>
+      </c>
+      <c r="P33">
+        <v>0.7177810830557603</v>
+      </c>
+      <c r="Q33">
+        <v>6.459949585962666</v>
+      </c>
+      <c r="R33">
+        <v>58.139546273664</v>
+      </c>
+      <c r="S33">
+        <v>0.00366991107290975</v>
+      </c>
+      <c r="T33">
+        <v>0.004610356133460131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2909543333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.8728629999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.003284926960133785</v>
+      </c>
+      <c r="P34">
+        <v>0.003718216220971988</v>
+      </c>
+      <c r="Q34">
+        <v>0.03346353073966666</v>
+      </c>
+      <c r="R34">
+        <v>0.301171776657</v>
+      </c>
+      <c r="S34">
+        <v>1.901070284929438E-05</v>
+      </c>
+      <c r="T34">
+        <v>2.388235266233322E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>20.562391</v>
+      </c>
+      <c r="N35">
+        <v>41.124782</v>
+      </c>
+      <c r="O35">
+        <v>0.232153107282743</v>
+      </c>
+      <c r="P35">
+        <v>0.175183083160057</v>
+      </c>
+      <c r="Q35">
+        <v>2.364942276083</v>
+      </c>
+      <c r="R35">
+        <v>14.189653656498</v>
+      </c>
+      <c r="S35">
+        <v>0.001343528727321487</v>
+      </c>
+      <c r="T35">
+        <v>0.00112521271595379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N31">
-        <v>4.323644</v>
-      </c>
-      <c r="O31">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P31">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q31">
-        <v>0.8027690598604442</v>
-      </c>
-      <c r="R31">
-        <v>7.224921538743999</v>
-      </c>
-      <c r="S31">
-        <v>0.0003784645115127486</v>
-      </c>
-      <c r="T31">
-        <v>0.000471626793952865</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5741476666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.722443</v>
+      </c>
+      <c r="O36">
+        <v>0.006482230828885768</v>
+      </c>
+      <c r="P36">
+        <v>0.007337251667557973</v>
+      </c>
+      <c r="Q36">
+        <v>0.06603444558633334</v>
+      </c>
+      <c r="R36">
+        <v>0.594310010277</v>
+      </c>
+      <c r="S36">
+        <v>3.751430871493827E-05</v>
+      </c>
+      <c r="T36">
+        <v>4.712766054554635E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.5758453333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.727536</v>
+      </c>
+      <c r="O37">
+        <v>0.006501397792095299</v>
+      </c>
+      <c r="P37">
+        <v>0.00735894679636216</v>
+      </c>
+      <c r="Q37">
+        <v>0.06622969932266666</v>
+      </c>
+      <c r="R37">
+        <v>0.5960672939039999</v>
+      </c>
+      <c r="S37">
+        <v>3.762523277703215E-05</v>
+      </c>
+      <c r="T37">
+        <v>4.72670098158319E-05</v>
       </c>
     </row>
   </sheetData>
